--- a/patientinfo/Data.xlsx
+++ b/patientinfo/Data.xlsx
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -40,9 +37,6 @@
     <t xml:space="preserve">address</t>
   </si>
   <si>
-    <t xml:space="preserve">P01</t>
-  </si>
-  <si>
     <t xml:space="preserve">Shreyans</t>
   </si>
   <si>
@@ -50,9 +44,6 @@
   </si>
   <si>
     <t xml:space="preserve">Ayodhya, Uttar Pradesh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P02</t>
   </si>
   <si>
     <t xml:space="preserve">Shashwat</t>
@@ -160,20 +151,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="26.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="1" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="26.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="5" style="1" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -192,48 +183,39 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="n">
+        <v>1234512345</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>1234</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>3456</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>3456345644</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
